--- a/evaluate/testset.xlsx
+++ b/evaluate/testset.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b440c95ba6615302/Dokumente/GitHub/CLLeMens/evaluate/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_67FD66929E52220F62355476585DCE3A87476A28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B62A8F0-38D7-4CAD-BEE2-A99446108BAA}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="9600" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Contexts</t>
+  </si>
+  <si>
+    <t>Ground Truth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,83 +393,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contexts</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ground Truth</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Who was the author of Masterarbeit Expose?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>The author of the Masterarbeit Expose is Alpay-Kaan Erbay.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Expos´ e f ¨ur eine Masterarbeit zum Thema:\nEinsatz maschineller Lernverfahren zur Bestimmung\nkritischer SEO-Parameter\nAlpay-Kaan Erbay\nHochschule Ruhr West, L ¨utzowstr. 5, Bottrop 46246, Deutschland\n25. M ¨arz 2024\n1', 'ohne eine tiefgehende Untersuchung der spezifischen Gewichtungen von Websei-\ntenparametern. Diese Arbeiten bieten wertvolle Einblicke in die Potenziale von\nmaschinellem Lernen f ¨ur SEO, lassen jedoch eine detaillierte Analyse dar ¨uber\nvermissen, nach welchen genauen Kriterien Google Webseiten bewertet und ein-\nstuft. Die vorliegende Arbeit erkennt diese Forschungsl ¨ucke und strebt danach,\nsie zu schließen, indem sie ein maßgeschneidertes neuronales Netz entwickelt,\nwelches speziell darauf ausgerichtet ist, die Gewichtungen und Interaktionen\nverschiedener SEO-relevanter Parameter im Ranking-Algorithmus von Google', 'zu entschl ¨usseln. Dadurch soll nicht nur das Verst ¨andnis der Funktionsweise\nvon Googles Algorithmus vertieft, sondern auch konkrete Hinweise darauf ge-\nliefert werden, welche Aspekte von Webseiten f ¨ur eine optimale Positionierung\nin den Suchergebnissen entscheidend sind. Diese spezifische Ausrichtung auf die\nAnalyse der Parametergewichtungen unterscheidet die vorliegende Arbeit deut-\nlich von bisherigen Ans ¨atzen und verspricht, pr ¨azisere und anwendungsbezogene\nErkenntnisse f ¨ur die Optimierung von Webseiten zu liefern.\n4 Methodik\nDie vorliegende Arbeit verfolgt die zentrale Fragestellung, ob es m ¨oglich ist,', '5 Erwartete Ergebnisse\nEs wird erwartet, dass die Arbeit signifikante neue Erkenntnisse dar ¨uber liefert,\nwelche Faktoren f ¨ur Google-Rankings entscheidend sind und wie diese inter-\nagieren. Das entwickelte Modell soll nicht nur aktuelle Einblicke in die Algo-\nrithmen von Google bieten, sondern auch die F ¨ahigkeit besitzen, sich an deren\nkontinuierliche ¨Anderungen anzupassen, um stets relevante und zeitnahe SEO-\nEmpfehlungen zu erm ¨oglichen. Damit leistet die Arbeit einen bedeutenden Bei-\ntrag zur SEO-Forschung und -Praxis.\nLiteratur\n[1] Indriyatmoko, T., Rahardi, M.: Relevansi Search Engine Optimization\n(SEO) On-pages Di 2021. Jurnal Ilmiah Komputer dan Bisnis 2(1),', 'und Unternehmen erm ¨oglicht, ihre Sichtbarkeit im digitalen Raum strategisch\nzu ver-bessern.\n2 Zielsetzung und Erkenntnisinteresse\nZiel dieser Arbeit ist es, durch die Entwicklung eines spezialisierten neuronalen\nNetzwerks tiefere Einblicke in die Funktionsweise von Googles Ranking-Algo-\nrithmen zu gewinnen. Das Erkenntnisinteresse liegt insbesondere darin, zu ver-\nstehen, welche Parameter von Google bevorzugt werden und wie diese das Ran-\nking beeinflussen, um darauf aufbauend pr ¨azise Vorhersagen ¨uber das Ranking\nvon Webseiten unter Ber ¨ucksichtigung einer breiten Palette von Parametern zu\nerm¨oglichen.\n3 Forschungsstand und theoretische Grundlagen', 'Eine weitere Studie untersucht die Anwendung von maschinellem Lernen, ins-\nbesondere des Graph Neural Network (GNN), auf das Ranking von Webseiten.\n3', 'Ziel ist es, zu zeigen, dass GNN verschiedene existierende Ranking-Methoden wie\nPageRank, TrustRank, HITS und OPIC lernen und anwenden kann. Dadurch\nsoll eine flexiblere und m ¨oglicherweise effizientere Methode zur Bewertung und\nEinordnung von Webseiten im Kontext der Suchmaschinenoptimierung etabliert\nwerden. Dabei wird auf die Analyse von Netzwerkstrukturen und Beziehungen\nzwischen Webseite gesetzt (Yong et al., 2008).\nForschungsl ¨ucke und Beitrag dieser Arbeit:\nW¨ahrend bereits einige Forschungsarbeiten den Einsatz neuronaler Netze zur\nAnalyse und Verbesserung von Google-Rankings erforscht haben, fokussieren\nsich diese meist auf die allgemeine Anwendung maschinellen Lernens in der SEO', 'regeln der Suchmaschinenoptimierung regelm ¨aßig ver ¨andern. Entwickler und\nSEO-Experten stehen somit vor der schwierigen Aufgabe, ohne klare Einsicht\nin die spezifischen Gewichtungen und Interaktionen der Ranking-Faktoren eine\neffektive SEO-Strategie zu entwickeln. Die Dynamik der Suchmaschinenopti-\nmierung (SEO) ist somit maßgeblich von den undurchsichtigen Algorithmen\nder Suchmaschinen, insbesondere Google, gepr ¨agt. Die zentrale Herausforde-\nrung besteht darin, diese komplexen und oft intransparenten Mechanismen zu\nent-schl ¨usseln, um eine SEO-Strategie zu entwickeln und kontinuierlich anzu-\npassen, die den st ¨andig wechselnden Anforderungen von Google gerecht wird']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The Author is Alpay-Kaan Erbay</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What is the Masterarbeit Expose about?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The Masterarbeit Expose is about using machine learning methods to determine critical SEO parameters. The aim of the work is to gain deeper insights into Google's ranking algorithms through the development of a specialized neural network. The goal is to understand which parameters Google prefers and how these influence the ranking. Based on this, the work seeks to make precise predictions about the ranking of websites, considering a wide range of parameters. The research aims to fill a knowledge gap in understanding how Google evaluates and ranks websites based on specific parameters. The work expects to provide significant new insights into what factors are crucial for Google rankings and how they interact.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['Expos´ e f ¨ur eine Masterarbeit zum Thema:\nEinsatz maschineller Lernverfahren zur Bestimmung\nkritischer SEO-Parameter\nAlpay-Kaan Erbay\nHochschule Ruhr West, L ¨utzowstr. 5, Bottrop 46246, Deutschland\n25. M ¨arz 2024\n1', 'und Unternehmen erm ¨oglicht, ihre Sichtbarkeit im digitalen Raum strategisch\nzu ver-bessern.\n2 Zielsetzung und Erkenntnisinteresse\nZiel dieser Arbeit ist es, durch die Entwicklung eines spezialisierten neuronalen\nNetzwerks tiefere Einblicke in die Funktionsweise von Googles Ranking-Algo-\nrithmen zu gewinnen. Das Erkenntnisinteresse liegt insbesondere darin, zu ver-\nstehen, welche Parameter von Google bevorzugt werden und wie diese das Ran-\nking beeinflussen, um darauf aufbauend pr ¨azise Vorhersagen ¨uber das Ranking\nvon Webseiten unter Ber ¨ucksichtigung einer breiten Palette von Parametern zu\nerm¨oglichen.\n3 Forschungsstand und theoretische Grundlagen', 'zu entschl ¨usseln. Dadurch soll nicht nur das Verst ¨andnis der Funktionsweise\nvon Googles Algorithmus vertieft, sondern auch konkrete Hinweise darauf ge-\nliefert werden, welche Aspekte von Webseiten f ¨ur eine optimale Positionierung\nin den Suchergebnissen entscheidend sind. Diese spezifische Ausrichtung auf die\nAnalyse der Parametergewichtungen unterscheidet die vorliegende Arbeit deut-\nlich von bisherigen Ans ¨atzen und verspricht, pr ¨azisere und anwendungsbezogene\nErkenntnisse f ¨ur die Optimierung von Webseiten zu liefern.\n4 Methodik\nDie vorliegende Arbeit verfolgt die zentrale Fragestellung, ob es m ¨oglich ist,', 'ohne eine tiefgehende Untersuchung der spezifischen Gewichtungen von Websei-\ntenparametern. Diese Arbeiten bieten wertvolle Einblicke in die Potenziale von\nmaschinellem Lernen f ¨ur SEO, lassen jedoch eine detaillierte Analyse dar ¨uber\nvermissen, nach welchen genauen Kriterien Google Webseiten bewertet und ein-\nstuft. Die vorliegende Arbeit erkennt diese Forschungsl ¨ucke und strebt danach,\nsie zu schließen, indem sie ein maßgeschneidertes neuronales Netz entwickelt,\nwelches speziell darauf ausgerichtet ist, die Gewichtungen und Interaktionen\nverschiedener SEO-relevanter Parameter im Ranking-Algorithmus von Google', '5 Erwartete Ergebnisse\nEs wird erwartet, dass die Arbeit signifikante neue Erkenntnisse dar ¨uber liefert,\nwelche Faktoren f ¨ur Google-Rankings entscheidend sind und wie diese inter-\nagieren. Das entwickelte Modell soll nicht nur aktuelle Einblicke in die Algo-\nrithmen von Google bieten, sondern auch die F ¨ahigkeit besitzen, sich an deren\nkontinuierliche ¨Anderungen anzupassen, um stets relevante und zeitnahe SEO-\nEmpfehlungen zu erm ¨oglichen. Damit leistet die Arbeit einen bedeutenden Bei-\ntrag zur SEO-Forschung und -Praxis.\nLiteratur\n[1] Indriyatmoko, T., Rahardi, M.: Relevansi Search Engine Optimization\n(SEO) On-pages Di 2021. Jurnal Ilmiah Komputer dan Bisnis 2(1),', 'Eine weitere Studie untersucht die Anwendung von maschinellem Lernen, ins-\nbesondere des Graph Neural Network (GNN), auf das Ranking von Webseiten.\n3', 'herangezogen. Durch den Vergleich dieser Metriken ¨uber die verschiedenen Mo-\ndelle hinweg k ¨onnen R ¨uckschl ¨usse auf die St ¨arken und Schw ¨achen der einzel-\nnen Ans ¨atze gezogen werden. Des Weiteren werden Sensitivit ¨atsanalysen durch-\ngef¨uhrt, um zu untersuchen, wie Ver ¨anderungen in den Daten oder Parametern\ndie Feature-Wichtigkeitsbewertungen beeinflussen. Diese systematische Bewer-\ntung erm ¨oglicht es, die Methoden objektiv zu vergleichen und diejenigen aus-\nzuw¨ahlen, die die zuverl ¨assigsten und aussagekr ¨aftigsten Einblicke in die Ge-\nwichtung der SEO-Parameter liefern.\n6', 'Raum erlernt wird. Dies ist n ¨utzlich, um die zugrundeliegende Struktur\nder Daten zu verstehen und die wichtigsten Features zu identifizieren, die\nf¨ur das Ranking einer Webseite ausschlaggebend sind. Die Reduktion auf\neinen latenten Raum erm ¨oglicht es, die komplexen Beziehungen zwischen\nden Features zu entwirren und diejenigen hervorzuheben, die f ¨ur die Vor-\nhersage am wichtigsten sind.\n4.3 Benchmarking und Vergleich\nUm die Effektivit ¨at der verschiedenen Methoden zu bewerten, wird ein Benchmarking-\nAnsatz verfolgt. Dazu werden konsistente Metriken wie die Vorhersagegenauig-\nkeit, die Feature-Wichtigkeitsrankings und die Interpretierbarkeit der Modelle']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>It is about love</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/evaluate/testset.xlsx
+++ b/evaluate/testset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b440c95ba6615302/Dokumente/GitHub/CLLeMens/evaluate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_67FD66929E52220F62355476585DCE3A87476A28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B62A8F0-38D7-4CAD-BEE2-A99446108BAA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_67FD66929E52220F62355476585DCE3A87476A28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8C6F62-E887-4E75-A213-DE90A56D90FC}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +401,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/evaluate/testset.xlsx
+++ b/evaluate/testset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b440c95ba6615302/Dokumente/GitHub/CLLeMens/evaluate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_67FD66929E52220F62355476585DCE3A87476A28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8C6F62-E887-4E75-A213-DE90A56D90FC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B1AD7854-D512-42CA-8536-257FB597076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{388CB913-8C98-40ED-9A04-ADC7555FE70A}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>Ground Truth</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>Contexts</t>
-  </si>
-  <si>
-    <t>Ground Truth</t>
+    <t>Why is evaluating RAG architectures challenging?</t>
+  </si>
+  <si>
+    <t>Evaluating RAG architectures is challenging because it involves several dimensions, such as the ability of the retrieval system to identify relevant context passages, the ability of the LLM to exploit such passages faithfully, and the quality of the generation itself.</t>
+  </si>
+  <si>
+    <t>What are the three quality aspects RAGAS focuses on for evaluation?</t>
+  </si>
+  <si>
+    <t>RAGAS focuses on evaluating three quality aspects: Faithfulness (the answer should be grounded in the given context), Answer Relevance (the answer should directly address the provided question), and Context Relevance (the retrieved context should be focused and contain minimal irrelevant information).</t>
+  </si>
+  <si>
+    <t>What is RAGAS, and what is its purpose?</t>
+  </si>
+  <si>
+    <t>RAGAS (Retrieval Augmented Generation Assessment) is a framework for reference-free evaluation of Retrieval Augmented Generation (RAG) pipelines. It is designed to evaluate RAG systems without relying on ground truth human annotations.</t>
+  </si>
+  <si>
+    <t>What are the main components of RAG systems?</t>
+  </si>
+  <si>
+    <t>RAG systems consist of a retrieval and an LLM-based generation module. They provide LLMs with knowledge from a reference textual database, enabling them to act as a natural language layer between a user and textual databases.</t>
+  </si>
+  <si>
+    <t>What are the challenges identified in automatically evaluating the context relevance of RAG systems?</t>
+  </si>
+  <si>
+    <t>One key challenge in evaluating context relevance is that LLMs often struggle with selecting crucial sentences from longer contexts, especially when important information is provided in the middle of the context passage. This makes it difficult to accurately assess whether the retrieved context is sufficiently focused and relevant.</t>
+  </si>
+  <si>
+    <t>What is the primary purpose of using embeddings within Large Language Models (LLMs) for code documentation?</t>
+  </si>
+  <si>
+    <t>Embeddings within LLMs are used to capture intricate relationships between code elements and their contextual usage, aiming to create well-organized and context-rich code documentation.</t>
+  </si>
+  <si>
+    <t>Effective code documentation should include comprehensive installation instructions, usage examples, list of dependencies, detailed function documentation, and be structured with clear headings, bullet points, and appropriate formatting for easy understanding and navigation.</t>
+  </si>
+  <si>
+    <t>What are the key factors that contribute to effective code documentation according to the guidelines provided in the document?</t>
+  </si>
+  <si>
+    <t>What is the significance of the chunk size in the process of embedding code for documentation?</t>
+  </si>
+  <si>
+    <t>The chunk size is crucial in determining the efficacy of embeddings; too large chunks amalgamate multiple contexts, while too small chunks may not encapsulate sufficient contextual information. Optimal chunk size ensures effective categorization within the vector space for precise documentation.</t>
+  </si>
+  <si>
+    <t>What methodology is used in the significance tests within the evaluation process of the code documentation generator?</t>
+  </si>
+  <si>
+    <t>Significance tests involve using statistical analysis tools to validate the differences in quality scores between generated and pre-existing code documentation. This includes testing for normal distribution and conducting paired sample t-tests to assess the statistical significance of observed differences.</t>
+  </si>
+  <si>
+    <t>What are the implications of the findings from the t-test conducted in the significance tests of the evaluation results?</t>
+  </si>
+  <si>
+    <t>The t-test results indicate whether there is a statistically significant difference between the evaluation scores of AI-generated and human-written documentation. A significant difference suggests that the AI-generated documentation performs better or worse in specific criteria compared to the human-written counterparts.</t>
+  </si>
+  <si>
+    <t>What is the central challenge that GitHub faces due to its significant number of open issues?</t>
+  </si>
+  <si>
+    <t>GitHub faces the challenge of efficiently managing and prioritizing a massive amount of feedback without compromising the quality and speed of problem resolution due to over 100 million open issues.</t>
+  </si>
+  <si>
+    <t>What approach does the system use to ensure the integrity and impartiality of GitHub repository selection for evaluation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system selects repositories where the researchers have no influence on solution acceptance or rejection and includes a range of projects from simple to complex to ensure a comprehensive evaluation of the system's effectiveness.</t>
+  </si>
+  <si>
+    <t>How does the system process and utilize embeddings in relation to GitHub issues?</t>
+  </si>
+  <si>
+    <t>Embeddings are used to generate quantitative representations of text, which are then stored in vector databases. When a user query is received, the input text is converted into an embedding and sent to the vector database to find the closest textual and semantic similarity, aiding in the issue handling process.</t>
+  </si>
+  <si>
+    <t>Describe the post-processing and code integration step as outlined in the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the post-processing and code integration step, a specially developed parser separates the generated code from the associated JSON object. The extracted data is then used to replace the original code with the revised code, utilizing the source information in the JSON object as a reference.</t>
+  </si>
+  <si>
+    <t>How does the document describe the use of the "AutoPR" tool in the context of GitHub issues?</t>
+  </si>
+  <si>
+    <t>AutoPR is described as a comprehensive framework specialized in orchestrating workflows within repositories, allowing users to implement specified actions using Python and integrate them into coordinated workflows, initially developed to generate pull requests based on issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How does the system handle automatic detection of references in GitHub issue descriptions?</t>
+  </si>
+  <si>
+    <t>The system uses rule-based algorithms and pattern matching to automatically identify file paths and URLs in issue descriptions. These references, which often contain critical information for issue resolution, are extracted and stored for subsequent processing.</t>
+  </si>
+  <si>
+    <t>What results did LLMLingua achieve in its evaluation?</t>
+  </si>
+  <si>
+    <t>LLMLingua demonstrated state-of-the-art performance across the evaluated datasets, enabling up to 20x compression with minimal performance loss, highlighting its effectiveness in maintaining reasoning and contextual understanding in compressed prompts.</t>
+  </si>
+  <si>
+    <t>What datasets were used to evaluate LLMLingua?</t>
+  </si>
+  <si>
+    <t>LLMLingua was evaluated using four datasets from different scenarios: GSM8K and BBH for reasoning and in-context learning (ICL), ShareGPT for conversation, and Arxiv-March23 for summarization.</t>
+  </si>
+  <si>
+    <t>What is LLMLingua?</t>
+  </si>
+  <si>
+    <t>LLMLingua is a coarse-to-fine prompt compression method designed to accelerate model inference and reduce costs associated with large language models (LLMs) by maintaining semantic integrity under high compression ratios, optimizing the interdependence between compressed contents, and aligning distributions between different language models.</t>
+  </si>
+  <si>
+    <t>How does LLMLingua address the distribution discrepancy between the target LLM and the small language model used for prompt compression?</t>
+  </si>
+  <si>
+    <t>LLMLingua uses an instruction tuning-based method to align the distributions of the small language model and the target LLM, ensuring that the compressed prompts are well-understood and effectively processed by the target LLM.</t>
+  </si>
+  <si>
+    <t>What problem does the paper address regarding large language models (LLMs)?</t>
+  </si>
+  <si>
+    <t>The paper addresses the problem of generating token sequences from LLMs that conform to regular expressions or context-free grammars (CFGs), making LLM outputs usable under strict formatting requirements.</t>
+  </si>
+  <si>
+    <t>What novel approach does the paper propose for guided text generation?</t>
+  </si>
+  <si>
+    <t>The paper proposes using finite state machines (FSMs) to constructively reformulate text generation, enabling the construction of an index to efficiently obtain non-zero-probability tokens at each generation step, significantly reducing the computational cost to O(1) on average.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What examples are used in the document to demonstrate the application of the proposed FSM-based guided generation method?</t>
+  </si>
+  <si>
+    <t>The document uses examples of generating text that conforms to specific patterns, such as affirmative/negative responses, years, and IP addresses, to demonstrate how the FSM-based guided generation method can enforce structural constraints on the generated text.</t>
+  </si>
+  <si>
+    <t>What potential applications and implications of the FSM-based guided generation method are discussed in the document?</t>
+  </si>
+  <si>
+    <t>The document suggests that the method could assist in the training or fine-tuning of LLMs for structured outputs, provide an alternative evaluation for current models, and potentially lift the computed masks into the models themselves to further reduce computational costs.</t>
   </si>
 </sst>
 </file>
@@ -107,10 +251,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,17 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,7 +566,200 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>